--- a/Carrie/11-24/支付宝/昆山支付宝202007月.xlsx
+++ b/Carrie/11-24/支付宝/昆山支付宝202007月.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattz\Documents\WorkSpace\Carrie\11-24\支付宝\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEF285E-98F8-4A73-81D4-70ECDB85B20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="账务组合查询1" sheetId="1" r:id="rId1"/>
@@ -15,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">账务组合查询1!$A$1:$U$575</definedName>
   </definedNames>
-  <calcPr calcId="125725" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -12225,7 +12231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -12903,45 +12909,39 @@
     </xf>
   </cellXfs>
   <cellStyles count="55">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -12950,7 +12950,13 @@
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="42"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -12961,11 +12967,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Matt.Zhou" refreshedDate="44159.481553935184" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="188">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matt.Zhou" refreshedDate="44159.481553935184" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="188" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:D1048576" sheet="汇总"/>
   </cacheSource>
@@ -13019,6 +13033,11 @@
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="32" maxValue="32"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -13968,7 +13987,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="MU8:MW48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -14155,11 +14174,16 @@
     <dataField name="求和项:支付宝退款金额" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14201,7 +14225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14233,9 +14257,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14267,6 +14309,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -14442,17 +14502,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="A1:U1"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="16" max="16" width="144.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.06640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="144.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1">
@@ -14587,55 +14648,55 @@
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1">
       <c r="A3" t="s">
-        <v>2200</v>
+        <v>1993</v>
       </c>
       <c r="B3" t="s">
-        <v>2192</v>
+        <v>1994</v>
       </c>
       <c r="C3" t="s">
-        <v>2193</v>
+        <v>1995</v>
       </c>
       <c r="D3" t="s">
-        <v>2201</v>
+        <v>1996</v>
       </c>
       <c r="E3" t="s">
-        <v>2195</v>
+        <v>1997</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="1">
-        <v>758</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
+        <v>1989</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>2202</v>
+        <v>1998</v>
       </c>
       <c r="J3" t="s">
-        <v>2196</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>2203</v>
+        <v>749</v>
       </c>
       <c r="N3" t="s">
-        <v>2204</v>
+        <v>750</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>2198</v>
+        <v>1999</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>1992</v>
       </c>
       <c r="R3" t="s">
         <v>27</v>
@@ -14717,55 +14778,55 @@
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1">
       <c r="A5" t="s">
-        <v>3609</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="s">
-        <v>3610</v>
+        <v>1985</v>
       </c>
       <c r="C5" t="s">
-        <v>3603</v>
+        <v>1986</v>
       </c>
       <c r="D5" t="s">
-        <v>3611</v>
+        <v>1987</v>
       </c>
       <c r="E5" t="s">
-        <v>3605</v>
+        <v>1988</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1076</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
+        <v>1989</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>3612</v>
+        <v>1990</v>
       </c>
       <c r="J5" t="s">
-        <v>1847</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>3613</v>
+        <v>749</v>
       </c>
       <c r="N5" t="s">
-        <v>3614</v>
+        <v>750</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>
       </c>
       <c r="P5" t="s">
-        <v>3607</v>
+        <v>1991</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>1992</v>
       </c>
       <c r="R5" t="s">
         <v>27</v>
@@ -14847,55 +14908,55 @@
     </row>
     <row r="7" spans="1:21" ht="13.5" customHeight="1">
       <c r="A7" t="s">
-        <v>2873</v>
+        <v>2541</v>
       </c>
       <c r="B7" t="s">
-        <v>2865</v>
+        <v>2542</v>
       </c>
       <c r="C7" t="s">
-        <v>2866</v>
+        <v>2543</v>
       </c>
       <c r="D7" t="s">
-        <v>2874</v>
+        <v>2544</v>
       </c>
       <c r="E7" t="s">
-        <v>2868</v>
+        <v>2545</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1">
-        <v>234</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
+        <v>1989</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3">
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>2875</v>
+        <v>2546</v>
       </c>
       <c r="J7" t="s">
-        <v>2268</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>2680</v>
+        <v>2547</v>
       </c>
       <c r="N7" t="s">
-        <v>2876</v>
+        <v>2548</v>
       </c>
       <c r="O7" t="s">
-        <v>2870</v>
+        <v>2549</v>
       </c>
       <c r="P7" t="s">
-        <v>2871</v>
+        <v>2550</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>1992</v>
       </c>
       <c r="R7" t="s">
         <v>27</v>
@@ -14977,52 +15038,52 @@
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1">
       <c r="A9" t="s">
-        <v>2048</v>
+        <v>2200</v>
       </c>
       <c r="B9" t="s">
-        <v>2049</v>
+        <v>2192</v>
       </c>
       <c r="C9" t="s">
-        <v>2040</v>
+        <v>2193</v>
       </c>
       <c r="D9" t="s">
-        <v>2050</v>
+        <v>2201</v>
       </c>
       <c r="E9" t="s">
-        <v>2042</v>
+        <v>2195</v>
       </c>
       <c r="F9" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="1">
-        <v>1068</v>
+        <v>758</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>2051</v>
+        <v>2202</v>
       </c>
       <c r="J9" t="s">
-        <v>2043</v>
+        <v>2196</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>456</v>
+        <v>2203</v>
       </c>
       <c r="N9" t="s">
-        <v>2052</v>
+        <v>2204</v>
       </c>
       <c r="O9" t="s">
-        <v>2045</v>
+        <v>27</v>
       </c>
       <c r="P9" t="s">
-        <v>2046</v>
+        <v>2198</v>
       </c>
       <c r="Q9" t="s">
         <v>27</v>
@@ -15107,52 +15168,52 @@
     </row>
     <row r="11" spans="1:21" ht="13.5" customHeight="1">
       <c r="A11" t="s">
-        <v>3439</v>
+        <v>3609</v>
       </c>
       <c r="B11" t="s">
-        <v>3431</v>
+        <v>3610</v>
       </c>
       <c r="C11" t="s">
-        <v>3432</v>
+        <v>3603</v>
       </c>
       <c r="D11" t="s">
-        <v>3440</v>
+        <v>3611</v>
       </c>
       <c r="E11" t="s">
-        <v>3434</v>
+        <v>3605</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="1">
-        <v>758</v>
+        <v>1076</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>3441</v>
+        <v>3612</v>
       </c>
       <c r="J11" t="s">
-        <v>2196</v>
+        <v>1847</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>3442</v>
+        <v>3613</v>
       </c>
       <c r="N11" t="s">
-        <v>3443</v>
+        <v>3614</v>
       </c>
       <c r="O11" t="s">
-        <v>3436</v>
+        <v>27</v>
       </c>
       <c r="P11" t="s">
-        <v>3437</v>
+        <v>3607</v>
       </c>
       <c r="Q11" t="s">
         <v>27</v>
@@ -15237,19 +15298,19 @@
     </row>
     <row r="13" spans="1:21" ht="13.5" customHeight="1">
       <c r="A13" t="s">
-        <v>2273</v>
+        <v>2873</v>
       </c>
       <c r="B13" t="s">
-        <v>2274</v>
+        <v>2865</v>
       </c>
       <c r="C13" t="s">
-        <v>2265</v>
+        <v>2866</v>
       </c>
       <c r="D13" t="s">
-        <v>2275</v>
+        <v>2874</v>
       </c>
       <c r="E13" t="s">
-        <v>2267</v>
+        <v>2868</v>
       </c>
       <c r="F13" t="s">
         <v>41</v>
@@ -15261,28 +15322,28 @@
         <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>2276</v>
+        <v>2875</v>
       </c>
       <c r="J13" t="s">
         <v>2268</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>589</v>
+        <v>2680</v>
       </c>
       <c r="N13" t="s">
-        <v>678</v>
+        <v>2876</v>
       </c>
       <c r="O13" t="s">
-        <v>2270</v>
+        <v>2870</v>
       </c>
       <c r="P13" t="s">
-        <v>2271</v>
+        <v>2871</v>
       </c>
       <c r="Q13" t="s">
         <v>27</v>
@@ -15367,52 +15428,52 @@
     </row>
     <row r="15" spans="1:21" ht="13.5" customHeight="1">
       <c r="A15" t="s">
-        <v>2171</v>
+        <v>2048</v>
       </c>
       <c r="B15" t="s">
-        <v>2162</v>
+        <v>2049</v>
       </c>
       <c r="C15" t="s">
-        <v>2163</v>
+        <v>2040</v>
       </c>
       <c r="D15" t="s">
-        <v>2172</v>
+        <v>2050</v>
       </c>
       <c r="E15" t="s">
-        <v>2165</v>
+        <v>2042</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="1">
-        <v>440</v>
+        <v>1068</v>
       </c>
       <c r="H15" t="s">
         <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>2173</v>
+        <v>2051</v>
       </c>
       <c r="J15" t="s">
-        <v>2166</v>
+        <v>2043</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s">
         <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>2174</v>
+        <v>456</v>
       </c>
       <c r="N15" t="s">
-        <v>2175</v>
+        <v>2052</v>
       </c>
       <c r="O15" t="s">
-        <v>2168</v>
+        <v>2045</v>
       </c>
       <c r="P15" t="s">
-        <v>2169</v>
+        <v>2046</v>
       </c>
       <c r="Q15" t="s">
         <v>27</v>
@@ -15497,52 +15558,52 @@
     </row>
     <row r="17" spans="1:21" ht="13.5" customHeight="1">
       <c r="A17" t="s">
-        <v>2025</v>
+        <v>3439</v>
       </c>
       <c r="B17" t="s">
-        <v>2016</v>
+        <v>3431</v>
       </c>
       <c r="C17" t="s">
-        <v>2017</v>
+        <v>3432</v>
       </c>
       <c r="D17" t="s">
-        <v>2026</v>
+        <v>3440</v>
       </c>
       <c r="E17" t="s">
-        <v>2019</v>
+        <v>3434</v>
       </c>
       <c r="F17" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="1">
-        <v>546</v>
+        <v>758</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>2027</v>
+        <v>3441</v>
       </c>
       <c r="J17" t="s">
-        <v>2020</v>
+        <v>2196</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s">
         <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>2028</v>
+        <v>3442</v>
       </c>
       <c r="N17" t="s">
-        <v>1697</v>
+        <v>3443</v>
       </c>
       <c r="O17" t="s">
-        <v>2022</v>
+        <v>3436</v>
       </c>
       <c r="P17" t="s">
-        <v>2023</v>
+        <v>3437</v>
       </c>
       <c r="Q17" t="s">
         <v>27</v>
@@ -15627,52 +15688,52 @@
     </row>
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" t="s">
-        <v>1898</v>
+        <v>2273</v>
       </c>
       <c r="B19" t="s">
-        <v>1899</v>
+        <v>2274</v>
       </c>
       <c r="C19" t="s">
-        <v>1891</v>
+        <v>2265</v>
       </c>
       <c r="D19" t="s">
-        <v>1900</v>
+        <v>2275</v>
       </c>
       <c r="E19" t="s">
-        <v>1893</v>
+        <v>2267</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="1">
-        <v>1076</v>
+        <v>234</v>
       </c>
       <c r="H19" t="s">
         <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>1901</v>
+        <v>2276</v>
       </c>
       <c r="J19" t="s">
-        <v>1847</v>
+        <v>2268</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>1902</v>
+        <v>589</v>
       </c>
       <c r="N19" t="s">
-        <v>1903</v>
+        <v>678</v>
       </c>
       <c r="O19" t="s">
-        <v>1895</v>
+        <v>2270</v>
       </c>
       <c r="P19" t="s">
-        <v>1896</v>
+        <v>2271</v>
       </c>
       <c r="Q19" t="s">
         <v>27</v>
@@ -15757,52 +15818,52 @@
     </row>
     <row r="21" spans="1:21" ht="13.5" customHeight="1">
       <c r="A21" t="s">
-        <v>1966</v>
+        <v>2171</v>
       </c>
       <c r="B21" t="s">
-        <v>1957</v>
+        <v>2162</v>
       </c>
       <c r="C21" t="s">
-        <v>1958</v>
+        <v>2163</v>
       </c>
       <c r="D21" t="s">
-        <v>1967</v>
+        <v>2172</v>
       </c>
       <c r="E21" t="s">
-        <v>1960</v>
+        <v>2165</v>
       </c>
       <c r="F21" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="1">
-        <v>1374</v>
+        <v>440</v>
       </c>
       <c r="H21" t="s">
         <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>1968</v>
+        <v>2173</v>
       </c>
       <c r="J21" t="s">
-        <v>1961</v>
+        <v>2166</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>1969</v>
+        <v>2174</v>
       </c>
       <c r="N21" t="s">
-        <v>428</v>
+        <v>2175</v>
       </c>
       <c r="O21" t="s">
-        <v>1963</v>
+        <v>2168</v>
       </c>
       <c r="P21" t="s">
-        <v>1964</v>
+        <v>2169</v>
       </c>
       <c r="Q21" t="s">
         <v>27</v>
@@ -15887,52 +15948,52 @@
     </row>
     <row r="23" spans="1:21" ht="13.5" customHeight="1">
       <c r="A23" t="s">
-        <v>1867</v>
+        <v>2025</v>
       </c>
       <c r="B23" t="s">
-        <v>1868</v>
+        <v>2016</v>
       </c>
       <c r="C23" t="s">
-        <v>1860</v>
+        <v>2017</v>
       </c>
       <c r="D23" t="s">
-        <v>1869</v>
+        <v>2026</v>
       </c>
       <c r="E23" t="s">
-        <v>1862</v>
+        <v>2019</v>
       </c>
       <c r="F23" t="s">
         <v>41</v>
       </c>
       <c r="G23" s="1">
-        <v>3355</v>
+        <v>546</v>
       </c>
       <c r="H23" t="s">
         <v>27</v>
       </c>
       <c r="I23" t="s">
-        <v>1870</v>
+        <v>2027</v>
       </c>
       <c r="J23" t="s">
-        <v>1863</v>
+        <v>2020</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
         <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>1871</v>
+        <v>2028</v>
       </c>
       <c r="N23" t="s">
-        <v>1872</v>
+        <v>1697</v>
       </c>
       <c r="O23" t="s">
-        <v>27</v>
+        <v>2022</v>
       </c>
       <c r="P23" t="s">
-        <v>1865</v>
+        <v>2023</v>
       </c>
       <c r="Q23" t="s">
         <v>27</v>
@@ -16017,19 +16078,19 @@
     </row>
     <row r="25" spans="1:21" ht="13.5" customHeight="1">
       <c r="A25" t="s">
-        <v>3468</v>
+        <v>1898</v>
       </c>
       <c r="B25" t="s">
-        <v>3469</v>
+        <v>1899</v>
       </c>
       <c r="C25" t="s">
-        <v>3461</v>
+        <v>1891</v>
       </c>
       <c r="D25" t="s">
-        <v>3470</v>
+        <v>1900</v>
       </c>
       <c r="E25" t="s">
-        <v>3463</v>
+        <v>1893</v>
       </c>
       <c r="F25" t="s">
         <v>41</v>
@@ -16041,28 +16102,28 @@
         <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>3471</v>
+        <v>1901</v>
       </c>
       <c r="J25" t="s">
         <v>1847</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>3472</v>
+        <v>1902</v>
       </c>
       <c r="N25" t="s">
-        <v>93</v>
+        <v>1903</v>
       </c>
       <c r="O25" t="s">
-        <v>3465</v>
+        <v>1895</v>
       </c>
       <c r="P25" t="s">
-        <v>3466</v>
+        <v>1896</v>
       </c>
       <c r="Q25" t="s">
         <v>27</v>
@@ -16147,52 +16208,52 @@
     </row>
     <row r="27" spans="1:21" ht="13.5" customHeight="1">
       <c r="A27" t="s">
-        <v>3084</v>
+        <v>1966</v>
       </c>
       <c r="B27" t="s">
-        <v>3085</v>
+        <v>1957</v>
       </c>
       <c r="C27" t="s">
-        <v>3076</v>
+        <v>1958</v>
       </c>
       <c r="D27" t="s">
-        <v>3086</v>
+        <v>1967</v>
       </c>
       <c r="E27" t="s">
-        <v>3078</v>
+        <v>1960</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="1">
-        <v>1251</v>
+        <v>1374</v>
       </c>
       <c r="H27" t="s">
         <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>3087</v>
+        <v>1968</v>
       </c>
       <c r="J27" t="s">
-        <v>3079</v>
+        <v>1961</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>1840</v>
+        <v>1969</v>
       </c>
       <c r="N27" t="s">
-        <v>1841</v>
+        <v>428</v>
       </c>
       <c r="O27" t="s">
-        <v>3081</v>
+        <v>1963</v>
       </c>
       <c r="P27" t="s">
-        <v>3082</v>
+        <v>1964</v>
       </c>
       <c r="Q27" t="s">
         <v>27</v>
@@ -16277,52 +16338,52 @@
     </row>
     <row r="29" spans="1:21" ht="13.5" customHeight="1">
       <c r="A29" t="s">
-        <v>2634</v>
+        <v>1867</v>
       </c>
       <c r="B29" t="s">
-        <v>2635</v>
+        <v>1868</v>
       </c>
       <c r="C29" t="s">
-        <v>2626</v>
+        <v>1860</v>
       </c>
       <c r="D29" t="s">
-        <v>2636</v>
+        <v>1869</v>
       </c>
       <c r="E29" t="s">
-        <v>2628</v>
+        <v>1862</v>
       </c>
       <c r="F29" t="s">
         <v>41</v>
       </c>
       <c r="G29" s="1">
-        <v>287</v>
+        <v>3355</v>
       </c>
       <c r="H29" t="s">
         <v>27</v>
       </c>
       <c r="I29" t="s">
-        <v>2637</v>
+        <v>1870</v>
       </c>
       <c r="J29" t="s">
-        <v>2629</v>
+        <v>1863</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s">
         <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>2638</v>
+        <v>1871</v>
       </c>
       <c r="N29" t="s">
-        <v>2639</v>
+        <v>1872</v>
       </c>
       <c r="O29" t="s">
-        <v>2631</v>
+        <v>27</v>
       </c>
       <c r="P29" t="s">
-        <v>2632</v>
+        <v>1865</v>
       </c>
       <c r="Q29" t="s">
         <v>27</v>
@@ -16407,34 +16468,34 @@
     </row>
     <row r="31" spans="1:21" ht="13.5" customHeight="1">
       <c r="A31" t="s">
-        <v>3886</v>
+        <v>3468</v>
       </c>
       <c r="B31" t="s">
-        <v>3887</v>
+        <v>3469</v>
       </c>
       <c r="C31" t="s">
-        <v>3878</v>
+        <v>3461</v>
       </c>
       <c r="D31" t="s">
-        <v>3888</v>
+        <v>3470</v>
       </c>
       <c r="E31" t="s">
-        <v>3880</v>
+        <v>3463</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
       </c>
       <c r="G31" s="1">
-        <v>652</v>
+        <v>1076</v>
       </c>
       <c r="H31" t="s">
         <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>3889</v>
+        <v>3471</v>
       </c>
       <c r="J31" t="s">
-        <v>3881</v>
+        <v>1847</v>
       </c>
       <c r="K31" t="s">
         <v>84</v>
@@ -16443,16 +16504,16 @@
         <v>32</v>
       </c>
       <c r="M31" t="s">
-        <v>1902</v>
+        <v>3472</v>
       </c>
       <c r="N31" t="s">
-        <v>3890</v>
+        <v>93</v>
       </c>
       <c r="O31" t="s">
-        <v>3883</v>
+        <v>3465</v>
       </c>
       <c r="P31" t="s">
-        <v>3884</v>
+        <v>3466</v>
       </c>
       <c r="Q31" t="s">
         <v>27</v>
@@ -16537,52 +16598,52 @@
     </row>
     <row r="33" spans="1:21" ht="13.5" customHeight="1">
       <c r="A33" t="s">
-        <v>3538</v>
+        <v>3084</v>
       </c>
       <c r="B33" t="s">
-        <v>3539</v>
+        <v>3085</v>
       </c>
       <c r="C33" t="s">
-        <v>3531</v>
+        <v>3076</v>
       </c>
       <c r="D33" t="s">
-        <v>3540</v>
+        <v>3086</v>
       </c>
       <c r="E33" t="s">
-        <v>3533</v>
+        <v>3078</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
       </c>
       <c r="G33" s="1">
-        <v>234</v>
+        <v>1251</v>
       </c>
       <c r="H33" t="s">
         <v>27</v>
       </c>
       <c r="I33" t="s">
-        <v>3541</v>
+        <v>3087</v>
       </c>
       <c r="J33" t="s">
-        <v>2268</v>
+        <v>3079</v>
       </c>
       <c r="K33" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M33" t="s">
-        <v>3542</v>
+        <v>1840</v>
       </c>
       <c r="N33" t="s">
-        <v>3543</v>
+        <v>1841</v>
       </c>
       <c r="O33" t="s">
-        <v>3535</v>
+        <v>3081</v>
       </c>
       <c r="P33" t="s">
-        <v>3536</v>
+        <v>3082</v>
       </c>
       <c r="Q33" t="s">
         <v>27</v>
@@ -16667,34 +16728,34 @@
     </row>
     <row r="35" spans="1:21" ht="13.5" customHeight="1">
       <c r="A35" t="s">
-        <v>2606</v>
+        <v>2634</v>
       </c>
       <c r="B35" t="s">
-        <v>2597</v>
+        <v>2635</v>
       </c>
       <c r="C35" t="s">
-        <v>2598</v>
+        <v>2626</v>
       </c>
       <c r="D35" t="s">
-        <v>2607</v>
+        <v>2636</v>
       </c>
       <c r="E35" t="s">
-        <v>2600</v>
+        <v>2628</v>
       </c>
       <c r="F35" t="s">
         <v>41</v>
       </c>
       <c r="G35" s="1">
-        <v>1924</v>
+        <v>287</v>
       </c>
       <c r="H35" t="s">
         <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>2608</v>
+        <v>2637</v>
       </c>
       <c r="J35" t="s">
-        <v>2601</v>
+        <v>2629</v>
       </c>
       <c r="K35" t="s">
         <v>31</v>
@@ -16703,16 +16764,16 @@
         <v>32</v>
       </c>
       <c r="M35" t="s">
-        <v>2609</v>
+        <v>2638</v>
       </c>
       <c r="N35" t="s">
-        <v>1697</v>
+        <v>2639</v>
       </c>
       <c r="O35" t="s">
-        <v>2603</v>
+        <v>2631</v>
       </c>
       <c r="P35" t="s">
-        <v>2604</v>
+        <v>2632</v>
       </c>
       <c r="Q35" t="s">
         <v>27</v>
@@ -16797,34 +16858,34 @@
     </row>
     <row r="37" spans="1:21" ht="13.5" customHeight="1">
       <c r="A37" t="s">
-        <v>3857</v>
+        <v>3886</v>
       </c>
       <c r="B37" t="s">
-        <v>3849</v>
+        <v>3887</v>
       </c>
       <c r="C37" t="s">
-        <v>3850</v>
+        <v>3878</v>
       </c>
       <c r="D37" t="s">
-        <v>3858</v>
+        <v>3888</v>
       </c>
       <c r="E37" t="s">
-        <v>3852</v>
+        <v>3880</v>
       </c>
       <c r="F37" t="s">
         <v>41</v>
       </c>
       <c r="G37" s="1">
-        <v>128</v>
+        <v>652</v>
       </c>
       <c r="H37" t="s">
         <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>3859</v>
+        <v>3889</v>
       </c>
       <c r="J37" t="s">
-        <v>3649</v>
+        <v>3881</v>
       </c>
       <c r="K37" t="s">
         <v>84</v>
@@ -16833,16 +16894,16 @@
         <v>32</v>
       </c>
       <c r="M37" t="s">
-        <v>3860</v>
+        <v>1902</v>
       </c>
       <c r="N37" t="s">
-        <v>3861</v>
+        <v>3890</v>
       </c>
       <c r="O37" t="s">
-        <v>3854</v>
+        <v>3883</v>
       </c>
       <c r="P37" t="s">
-        <v>3855</v>
+        <v>3884</v>
       </c>
       <c r="Q37" t="s">
         <v>27</v>
@@ -16927,52 +16988,52 @@
     </row>
     <row r="39" spans="1:21" ht="13.5" customHeight="1">
       <c r="A39" t="s">
-        <v>3359</v>
+        <v>3538</v>
       </c>
       <c r="B39" t="s">
-        <v>3350</v>
+        <v>3539</v>
       </c>
       <c r="C39" t="s">
-        <v>3351</v>
+        <v>3531</v>
       </c>
       <c r="D39" t="s">
-        <v>3360</v>
+        <v>3540</v>
       </c>
       <c r="E39" t="s">
-        <v>3353</v>
+        <v>3533</v>
       </c>
       <c r="F39" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="1">
-        <v>2756</v>
+        <v>234</v>
       </c>
       <c r="H39" t="s">
         <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>3361</v>
+        <v>3541</v>
       </c>
       <c r="J39" t="s">
-        <v>3354</v>
+        <v>2268</v>
       </c>
       <c r="K39" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="L39" t="s">
         <v>32</v>
       </c>
       <c r="M39" t="s">
-        <v>3362</v>
+        <v>3542</v>
       </c>
       <c r="N39" t="s">
-        <v>855</v>
+        <v>3543</v>
       </c>
       <c r="O39" t="s">
-        <v>3356</v>
+        <v>3535</v>
       </c>
       <c r="P39" t="s">
-        <v>3357</v>
+        <v>3536</v>
       </c>
       <c r="Q39" t="s">
         <v>27</v>
@@ -17057,52 +17118,52 @@
     </row>
     <row r="41" spans="1:21" ht="13.5" customHeight="1">
       <c r="A41" t="s">
-        <v>3248</v>
+        <v>2606</v>
       </c>
       <c r="B41" t="s">
-        <v>3249</v>
+        <v>2597</v>
       </c>
       <c r="C41" t="s">
-        <v>3240</v>
+        <v>2598</v>
       </c>
       <c r="D41" t="s">
-        <v>3250</v>
+        <v>2607</v>
       </c>
       <c r="E41" t="s">
-        <v>3242</v>
+        <v>2600</v>
       </c>
       <c r="F41" t="s">
         <v>41</v>
       </c>
       <c r="G41" s="1">
-        <v>2158</v>
+        <v>1924</v>
       </c>
       <c r="H41" t="s">
         <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>3251</v>
+        <v>2608</v>
       </c>
       <c r="J41" t="s">
-        <v>3243</v>
+        <v>2601</v>
       </c>
       <c r="K41" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L41" t="s">
         <v>32</v>
       </c>
       <c r="M41" t="s">
-        <v>2318</v>
+        <v>2609</v>
       </c>
       <c r="N41" t="s">
-        <v>323</v>
+        <v>1697</v>
       </c>
       <c r="O41" t="s">
-        <v>3245</v>
+        <v>2603</v>
       </c>
       <c r="P41" t="s">
-        <v>3246</v>
+        <v>2604</v>
       </c>
       <c r="Q41" t="s">
         <v>27</v>
@@ -17187,52 +17248,52 @@
     </row>
     <row r="43" spans="1:21" ht="13.5" customHeight="1">
       <c r="A43" t="s">
-        <v>3013</v>
+        <v>3857</v>
       </c>
       <c r="B43" t="s">
-        <v>3005</v>
+        <v>3849</v>
       </c>
       <c r="C43" t="s">
-        <v>3006</v>
+        <v>3850</v>
       </c>
       <c r="D43" t="s">
-        <v>3014</v>
+        <v>3858</v>
       </c>
       <c r="E43" t="s">
-        <v>3008</v>
+        <v>3852</v>
       </c>
       <c r="F43" t="s">
         <v>41</v>
       </c>
       <c r="G43" s="1">
-        <v>864</v>
+        <v>128</v>
       </c>
       <c r="H43" t="s">
         <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>3015</v>
+        <v>3859</v>
       </c>
       <c r="J43" t="s">
-        <v>3009</v>
+        <v>3649</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="L43" t="s">
         <v>32</v>
       </c>
       <c r="M43" t="s">
-        <v>3016</v>
+        <v>3860</v>
       </c>
       <c r="N43" t="s">
-        <v>3017</v>
+        <v>3861</v>
       </c>
       <c r="O43" t="s">
-        <v>27</v>
+        <v>3854</v>
       </c>
       <c r="P43" t="s">
-        <v>3011</v>
+        <v>3855</v>
       </c>
       <c r="Q43" t="s">
         <v>27</v>
@@ -17317,52 +17378,52 @@
     </row>
     <row r="45" spans="1:21" ht="13.5" customHeight="1">
       <c r="A45" t="s">
-        <v>771</v>
+        <v>3359</v>
       </c>
       <c r="B45" t="s">
-        <v>772</v>
+        <v>3350</v>
       </c>
       <c r="C45" t="s">
-        <v>765</v>
+        <v>3351</v>
       </c>
       <c r="D45" t="s">
-        <v>773</v>
+        <v>3360</v>
       </c>
       <c r="E45" t="s">
-        <v>767</v>
+        <v>3353</v>
       </c>
       <c r="F45" t="s">
         <v>41</v>
       </c>
       <c r="G45" s="1">
-        <v>100</v>
+        <v>2756</v>
       </c>
       <c r="H45" t="s">
         <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>774</v>
+        <v>3361</v>
       </c>
       <c r="J45" t="s">
-        <v>267</v>
+        <v>3354</v>
       </c>
       <c r="K45" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="L45" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M45" t="s">
-        <v>775</v>
+        <v>3362</v>
       </c>
       <c r="N45" t="s">
-        <v>776</v>
+        <v>855</v>
       </c>
       <c r="O45" t="s">
-        <v>27</v>
+        <v>3356</v>
       </c>
       <c r="P45" t="s">
-        <v>769</v>
+        <v>3357</v>
       </c>
       <c r="Q45" t="s">
         <v>27</v>
@@ -17447,55 +17508,55 @@
     </row>
     <row r="47" spans="1:21" ht="13.5" customHeight="1">
       <c r="A47" t="s">
-        <v>2915</v>
+        <v>3248</v>
       </c>
       <c r="B47" t="s">
-        <v>2916</v>
+        <v>3249</v>
       </c>
       <c r="C47" t="s">
-        <v>2909</v>
+        <v>3240</v>
       </c>
       <c r="D47" t="s">
-        <v>2917</v>
+        <v>3250</v>
       </c>
       <c r="E47" t="s">
-        <v>2911</v>
+        <v>3242</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
       </c>
       <c r="G47" s="1">
-        <v>149</v>
+        <v>2158</v>
       </c>
       <c r="H47" t="s">
         <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>2918</v>
+        <v>3251</v>
       </c>
       <c r="J47" t="s">
-        <v>390</v>
+        <v>3243</v>
       </c>
       <c r="K47" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="L47" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M47" t="s">
-        <v>2919</v>
+        <v>2318</v>
       </c>
       <c r="N47" t="s">
-        <v>2920</v>
+        <v>323</v>
       </c>
       <c r="O47" t="s">
-        <v>27</v>
+        <v>3245</v>
       </c>
       <c r="P47" t="s">
-        <v>2913</v>
+        <v>3246</v>
       </c>
       <c r="Q47" t="s">
-        <v>2921</v>
+        <v>27</v>
       </c>
       <c r="R47" t="s">
         <v>27</v>
@@ -17577,52 +17638,52 @@
     </row>
     <row r="49" spans="1:21" ht="13.5" customHeight="1">
       <c r="A49" t="s">
-        <v>2244</v>
+        <v>3013</v>
       </c>
       <c r="B49" t="s">
-        <v>2236</v>
+        <v>3005</v>
       </c>
       <c r="C49" t="s">
-        <v>2237</v>
+        <v>3006</v>
       </c>
       <c r="D49" t="s">
-        <v>2245</v>
+        <v>3014</v>
       </c>
       <c r="E49" t="s">
-        <v>2239</v>
+        <v>3008</v>
       </c>
       <c r="F49" t="s">
         <v>41</v>
       </c>
       <c r="G49" s="1">
-        <v>1076</v>
+        <v>864</v>
       </c>
       <c r="H49" t="s">
         <v>27</v>
       </c>
       <c r="I49" t="s">
-        <v>2246</v>
+        <v>3015</v>
       </c>
       <c r="J49" t="s">
-        <v>1847</v>
+        <v>3009</v>
       </c>
       <c r="K49" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s">
         <v>32</v>
       </c>
       <c r="M49" t="s">
-        <v>2247</v>
+        <v>3016</v>
       </c>
       <c r="N49" t="s">
-        <v>2248</v>
+        <v>3017</v>
       </c>
       <c r="O49" t="s">
-        <v>2241</v>
+        <v>27</v>
       </c>
       <c r="P49" t="s">
-        <v>2242</v>
+        <v>3011</v>
       </c>
       <c r="Q49" t="s">
         <v>27</v>
@@ -17707,34 +17768,34 @@
     </row>
     <row r="51" spans="1:21" ht="13.5" customHeight="1">
       <c r="A51" t="s">
-        <v>2214</v>
+        <v>771</v>
       </c>
       <c r="B51" t="s">
-        <v>2206</v>
+        <v>772</v>
       </c>
       <c r="C51" t="s">
-        <v>2207</v>
+        <v>765</v>
       </c>
       <c r="D51" t="s">
-        <v>2215</v>
+        <v>773</v>
       </c>
       <c r="E51" t="s">
-        <v>2209</v>
+        <v>767</v>
       </c>
       <c r="F51" t="s">
         <v>41</v>
       </c>
       <c r="G51" s="1">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="H51" t="s">
         <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>2216</v>
+        <v>774</v>
       </c>
       <c r="J51" t="s">
-        <v>2210</v>
+        <v>267</v>
       </c>
       <c r="K51" t="s">
         <v>116</v>
@@ -17743,19 +17804,19 @@
         <v>53</v>
       </c>
       <c r="M51" t="s">
-        <v>2217</v>
+        <v>775</v>
       </c>
       <c r="N51" t="s">
-        <v>2218</v>
+        <v>776</v>
       </c>
       <c r="O51" t="s">
         <v>27</v>
       </c>
       <c r="P51" t="s">
-        <v>2212</v>
+        <v>769</v>
       </c>
       <c r="Q51" t="s">
-        <v>2219</v>
+        <v>27</v>
       </c>
       <c r="R51" t="s">
         <v>27</v>
@@ -17837,55 +17898,55 @@
     </row>
     <row r="53" spans="1:21" ht="13.5" customHeight="1">
       <c r="A53" t="s">
-        <v>2522</v>
+        <v>2915</v>
       </c>
       <c r="B53" t="s">
-        <v>2514</v>
+        <v>2916</v>
       </c>
       <c r="C53" t="s">
-        <v>2515</v>
+        <v>2909</v>
       </c>
       <c r="D53" t="s">
-        <v>2523</v>
+        <v>2917</v>
       </c>
       <c r="E53" t="s">
-        <v>2517</v>
+        <v>2911</v>
       </c>
       <c r="F53" t="s">
         <v>41</v>
       </c>
       <c r="G53" s="1">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="H53" t="s">
         <v>27</v>
       </c>
       <c r="I53" t="s">
-        <v>2524</v>
+        <v>2918</v>
       </c>
       <c r="J53" t="s">
-        <v>2268</v>
+        <v>390</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="L53" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M53" t="s">
-        <v>2525</v>
+        <v>2919</v>
       </c>
       <c r="N53" t="s">
-        <v>2526</v>
+        <v>2920</v>
       </c>
       <c r="O53" t="s">
-        <v>2519</v>
+        <v>27</v>
       </c>
       <c r="P53" t="s">
-        <v>2520</v>
+        <v>2913</v>
       </c>
       <c r="Q53" t="s">
-        <v>27</v>
+        <v>2921</v>
       </c>
       <c r="R53" t="s">
         <v>27</v>
@@ -17967,52 +18028,52 @@
     </row>
     <row r="55" spans="1:21" ht="13.5" customHeight="1">
       <c r="A55" t="s">
-        <v>2301</v>
+        <v>2244</v>
       </c>
       <c r="B55" t="s">
-        <v>2292</v>
+        <v>2236</v>
       </c>
       <c r="C55" t="s">
-        <v>2293</v>
+        <v>2237</v>
       </c>
       <c r="D55" t="s">
-        <v>2302</v>
+        <v>2245</v>
       </c>
       <c r="E55" t="s">
-        <v>2295</v>
+        <v>2239</v>
       </c>
       <c r="F55" t="s">
         <v>41</v>
       </c>
       <c r="G55" s="1">
-        <v>424</v>
+        <v>1076</v>
       </c>
       <c r="H55" t="s">
         <v>27</v>
       </c>
       <c r="I55" t="s">
-        <v>2303</v>
+        <v>2246</v>
       </c>
       <c r="J55" t="s">
-        <v>2296</v>
+        <v>1847</v>
       </c>
       <c r="K55" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L55" t="s">
         <v>32</v>
       </c>
       <c r="M55" t="s">
-        <v>2304</v>
+        <v>2247</v>
       </c>
       <c r="N55" t="s">
-        <v>2305</v>
+        <v>2248</v>
       </c>
       <c r="O55" t="s">
-        <v>2298</v>
+        <v>2241</v>
       </c>
       <c r="P55" t="s">
-        <v>2299</v>
+        <v>2242</v>
       </c>
       <c r="Q55" t="s">
         <v>27</v>
@@ -18097,55 +18158,55 @@
     </row>
     <row r="57" spans="1:21" ht="13.5" customHeight="1">
       <c r="A57" t="s">
-        <v>1852</v>
+        <v>2214</v>
       </c>
       <c r="B57" t="s">
-        <v>1853</v>
+        <v>2206</v>
       </c>
       <c r="C57" t="s">
-        <v>1844</v>
+        <v>2207</v>
       </c>
       <c r="D57" t="s">
-        <v>1854</v>
+        <v>2215</v>
       </c>
       <c r="E57" t="s">
-        <v>1846</v>
+        <v>2209</v>
       </c>
       <c r="F57" t="s">
         <v>41</v>
       </c>
       <c r="G57" s="1">
-        <v>1076</v>
+        <v>161</v>
       </c>
       <c r="H57" t="s">
         <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>1855</v>
+        <v>2216</v>
       </c>
       <c r="J57" t="s">
-        <v>1847</v>
+        <v>2210</v>
       </c>
       <c r="K57" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M57" t="s">
-        <v>1856</v>
+        <v>2217</v>
       </c>
       <c r="N57" t="s">
-        <v>1857</v>
+        <v>2218</v>
       </c>
       <c r="O57" t="s">
-        <v>1849</v>
+        <v>27</v>
       </c>
       <c r="P57" t="s">
-        <v>1850</v>
+        <v>2212</v>
       </c>
       <c r="Q57" t="s">
-        <v>27</v>
+        <v>2219</v>
       </c>
       <c r="R57" t="s">
         <v>27</v>
@@ -18227,52 +18288,52 @@
     </row>
     <row r="59" spans="1:21" ht="13.5" customHeight="1">
       <c r="A59" t="s">
-        <v>2010</v>
+        <v>2522</v>
       </c>
       <c r="B59" t="s">
-        <v>2011</v>
+        <v>2514</v>
       </c>
       <c r="C59" t="s">
-        <v>2002</v>
+        <v>2515</v>
       </c>
       <c r="D59" t="s">
-        <v>2012</v>
+        <v>2523</v>
       </c>
       <c r="E59" t="s">
-        <v>2004</v>
+        <v>2517</v>
       </c>
       <c r="F59" t="s">
         <v>41</v>
       </c>
       <c r="G59" s="1">
-        <v>1015</v>
+        <v>234</v>
       </c>
       <c r="H59" t="s">
         <v>27</v>
       </c>
       <c r="I59" t="s">
-        <v>2013</v>
+        <v>2524</v>
       </c>
       <c r="J59" t="s">
-        <v>2005</v>
+        <v>2268</v>
       </c>
       <c r="K59" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="L59" t="s">
         <v>32</v>
       </c>
       <c r="M59" t="s">
-        <v>2014</v>
+        <v>2525</v>
       </c>
       <c r="N59" t="s">
-        <v>1035</v>
+        <v>2526</v>
       </c>
       <c r="O59" t="s">
-        <v>27</v>
+        <v>2519</v>
       </c>
       <c r="P59" t="s">
-        <v>2008</v>
+        <v>2520</v>
       </c>
       <c r="Q59" t="s">
         <v>27</v>
@@ -18357,52 +18418,52 @@
     </row>
     <row r="61" spans="1:21" ht="13.5" customHeight="1">
       <c r="A61" t="s">
-        <v>2972</v>
+        <v>2301</v>
       </c>
       <c r="B61" t="s">
-        <v>2973</v>
+        <v>2292</v>
       </c>
       <c r="C61" t="s">
-        <v>2965</v>
+        <v>2293</v>
       </c>
       <c r="D61" t="s">
-        <v>2974</v>
+        <v>2302</v>
       </c>
       <c r="E61" t="s">
-        <v>2967</v>
+        <v>2295</v>
       </c>
       <c r="F61" t="s">
         <v>41</v>
       </c>
       <c r="G61" s="1">
-        <v>1076</v>
+        <v>424</v>
       </c>
       <c r="H61" t="s">
         <v>27</v>
       </c>
       <c r="I61" t="s">
-        <v>2975</v>
+        <v>2303</v>
       </c>
       <c r="J61" t="s">
-        <v>1847</v>
+        <v>2296</v>
       </c>
       <c r="K61" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="L61" t="s">
         <v>32</v>
       </c>
       <c r="M61" t="s">
-        <v>2976</v>
+        <v>2304</v>
       </c>
       <c r="N61" t="s">
-        <v>605</v>
+        <v>2305</v>
       </c>
       <c r="O61" t="s">
-        <v>2969</v>
+        <v>2298</v>
       </c>
       <c r="P61" t="s">
-        <v>2970</v>
+        <v>2299</v>
       </c>
       <c r="Q61" t="s">
         <v>27</v>
@@ -18487,52 +18548,52 @@
     </row>
     <row r="63" spans="1:21" ht="13.5" customHeight="1">
       <c r="A63" t="s">
-        <v>2185</v>
+        <v>1852</v>
       </c>
       <c r="B63" t="s">
-        <v>2186</v>
+        <v>1853</v>
       </c>
       <c r="C63" t="s">
-        <v>2178</v>
+        <v>1844</v>
       </c>
       <c r="D63" t="s">
-        <v>2187</v>
+        <v>1854</v>
       </c>
       <c r="E63" t="s">
-        <v>2180</v>
+        <v>1846</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
       </c>
       <c r="G63" s="1">
-        <v>1612</v>
+        <v>1076</v>
       </c>
       <c r="H63" t="s">
         <v>27</v>
       </c>
       <c r="I63" t="s">
-        <v>2188</v>
+        <v>1855</v>
       </c>
       <c r="J63" t="s">
-        <v>2181</v>
+        <v>1847</v>
       </c>
       <c r="K63" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="L63" t="s">
         <v>32</v>
       </c>
       <c r="M63" t="s">
-        <v>2189</v>
+        <v>1856</v>
       </c>
       <c r="N63" t="s">
-        <v>2190</v>
+        <v>1857</v>
       </c>
       <c r="O63" t="s">
-        <v>27</v>
+        <v>1849</v>
       </c>
       <c r="P63" t="s">
-        <v>2183</v>
+        <v>1850</v>
       </c>
       <c r="Q63" t="s">
         <v>27</v>
@@ -18617,52 +18678,52 @@
     </row>
     <row r="65" spans="1:21" ht="13.5" customHeight="1">
       <c r="A65" t="s">
-        <v>1883</v>
+        <v>2010</v>
       </c>
       <c r="B65" t="s">
-        <v>1884</v>
+        <v>2011</v>
       </c>
       <c r="C65" t="s">
-        <v>1875</v>
+        <v>2002</v>
       </c>
       <c r="D65" t="s">
-        <v>1885</v>
+        <v>2012</v>
       </c>
       <c r="E65" t="s">
-        <v>1877</v>
+        <v>2004</v>
       </c>
       <c r="F65" t="s">
         <v>41</v>
       </c>
       <c r="G65" s="1">
-        <v>727</v>
+        <v>1015</v>
       </c>
       <c r="H65" t="s">
         <v>27</v>
       </c>
       <c r="I65" t="s">
-        <v>1886</v>
+        <v>2013</v>
       </c>
       <c r="J65" t="s">
-        <v>1878</v>
+        <v>2005</v>
       </c>
       <c r="K65" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="L65" t="s">
         <v>32</v>
       </c>
       <c r="M65" t="s">
-        <v>1887</v>
+        <v>2014</v>
       </c>
       <c r="N65" t="s">
-        <v>1888</v>
+        <v>1035</v>
       </c>
       <c r="O65" t="s">
-        <v>1880</v>
+        <v>27</v>
       </c>
       <c r="P65" t="s">
-        <v>1881</v>
+        <v>2008</v>
       </c>
       <c r="Q65" t="s">
         <v>27</v>
@@ -18747,52 +18808,52 @@
     </row>
     <row r="67" spans="1:21" ht="13.5" customHeight="1">
       <c r="A67" t="s">
-        <v>2157</v>
+        <v>2972</v>
       </c>
       <c r="B67" t="s">
-        <v>2148</v>
+        <v>2973</v>
       </c>
       <c r="C67" t="s">
-        <v>2149</v>
+        <v>2965</v>
       </c>
       <c r="D67" t="s">
-        <v>2158</v>
+        <v>2974</v>
       </c>
       <c r="E67" t="s">
-        <v>2151</v>
+        <v>2967</v>
       </c>
       <c r="F67" t="s">
         <v>41</v>
       </c>
       <c r="G67" s="1">
-        <v>917</v>
+        <v>1076</v>
       </c>
       <c r="H67" t="s">
         <v>27</v>
       </c>
       <c r="I67" t="s">
-        <v>2159</v>
+        <v>2975</v>
       </c>
       <c r="J67" t="s">
-        <v>2152</v>
+        <v>1847</v>
       </c>
       <c r="K67" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L67" t="s">
         <v>32</v>
       </c>
       <c r="M67" t="s">
-        <v>2160</v>
+        <v>2976</v>
       </c>
       <c r="N67" t="s">
-        <v>1872</v>
+        <v>605</v>
       </c>
       <c r="O67" t="s">
-        <v>2154</v>
+        <v>2969</v>
       </c>
       <c r="P67" t="s">
-        <v>2155</v>
+        <v>2970</v>
       </c>
       <c r="Q67" t="s">
         <v>27</v>
@@ -18877,52 +18938,52 @@
     </row>
     <row r="69" spans="1:21" ht="13.5" customHeight="1">
       <c r="A69" t="s">
-        <v>3317</v>
+        <v>2185</v>
       </c>
       <c r="B69" t="s">
-        <v>3318</v>
+        <v>2186</v>
       </c>
       <c r="C69" t="s">
-        <v>3309</v>
+        <v>2178</v>
       </c>
       <c r="D69" t="s">
-        <v>3319</v>
+        <v>2187</v>
       </c>
       <c r="E69" t="s">
-        <v>3311</v>
+        <v>2180</v>
       </c>
       <c r="F69" t="s">
         <v>41</v>
       </c>
       <c r="G69" s="1">
-        <v>1818</v>
+        <v>1612</v>
       </c>
       <c r="H69" t="s">
         <v>27</v>
       </c>
       <c r="I69" t="s">
-        <v>3320</v>
+        <v>2188</v>
       </c>
       <c r="J69" t="s">
-        <v>3312</v>
+        <v>2181</v>
       </c>
       <c r="K69" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="L69" t="s">
         <v>32</v>
       </c>
       <c r="M69" t="s">
-        <v>3321</v>
+        <v>2189</v>
       </c>
       <c r="N69" t="s">
-        <v>2920</v>
+        <v>2190</v>
       </c>
       <c r="O69" t="s">
-        <v>3314</v>
+        <v>27</v>
       </c>
       <c r="P69" t="s">
-        <v>3315</v>
+        <v>2183</v>
       </c>
       <c r="Q69" t="s">
         <v>27</v>
@@ -19007,34 +19068,34 @@
     </row>
     <row r="71" spans="1:21" ht="13.5" customHeight="1">
       <c r="A71" t="s">
-        <v>3070</v>
+        <v>1883</v>
       </c>
       <c r="B71" t="s">
-        <v>3062</v>
+        <v>1884</v>
       </c>
       <c r="C71" t="s">
-        <v>3063</v>
+        <v>1875</v>
       </c>
       <c r="D71" t="s">
-        <v>3071</v>
+        <v>1885</v>
       </c>
       <c r="E71" t="s">
-        <v>3065</v>
+        <v>1877</v>
       </c>
       <c r="F71" t="s">
         <v>41</v>
       </c>
       <c r="G71" s="1">
-        <v>1076</v>
+        <v>727</v>
       </c>
       <c r="H71" t="s">
         <v>27</v>
       </c>
       <c r="I71" t="s">
-        <v>3072</v>
+        <v>1886</v>
       </c>
       <c r="J71" t="s">
-        <v>1847</v>
+        <v>1878</v>
       </c>
       <c r="K71" t="s">
         <v>31</v>
@@ -19043,16 +19104,16 @@
         <v>32</v>
       </c>
       <c r="M71" t="s">
-        <v>3073</v>
+        <v>1887</v>
       </c>
       <c r="N71" t="s">
-        <v>1769</v>
+        <v>1888</v>
       </c>
       <c r="O71" t="s">
-        <v>3067</v>
+        <v>1880</v>
       </c>
       <c r="P71" t="s">
-        <v>3068</v>
+        <v>1881</v>
       </c>
       <c r="Q71" t="s">
         <v>27</v>
@@ -19137,52 +19198,52 @@
     </row>
     <row r="73" spans="1:21" ht="13.5" customHeight="1">
       <c r="A73" t="s">
-        <v>1081</v>
+        <v>2157</v>
       </c>
       <c r="B73" t="s">
-        <v>1082</v>
+        <v>2148</v>
       </c>
       <c r="C73" t="s">
-        <v>1075</v>
+        <v>2149</v>
       </c>
       <c r="D73" t="s">
-        <v>1083</v>
+        <v>2158</v>
       </c>
       <c r="E73" t="s">
-        <v>1077</v>
+        <v>2151</v>
       </c>
       <c r="F73" t="s">
         <v>41</v>
       </c>
       <c r="G73" s="1">
-        <v>1</v>
+        <v>917</v>
       </c>
       <c r="H73" t="s">
         <v>27</v>
       </c>
       <c r="I73" t="s">
-        <v>1084</v>
+        <v>2159</v>
       </c>
       <c r="J73" t="s">
-        <v>82</v>
+        <v>2152</v>
       </c>
       <c r="K73" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="L73" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M73" t="s">
-        <v>749</v>
+        <v>2160</v>
       </c>
       <c r="N73" t="s">
-        <v>750</v>
+        <v>1872</v>
       </c>
       <c r="O73" t="s">
-        <v>27</v>
+        <v>2154</v>
       </c>
       <c r="P73" t="s">
-        <v>1079</v>
+        <v>2155</v>
       </c>
       <c r="Q73" t="s">
         <v>27</v>
@@ -19267,52 +19328,52 @@
     </row>
     <row r="75" spans="1:21" ht="13.5" customHeight="1">
       <c r="A75" t="s">
-        <v>1118</v>
+        <v>3317</v>
       </c>
       <c r="B75" t="s">
-        <v>1111</v>
+        <v>3318</v>
       </c>
       <c r="C75" t="s">
-        <v>1112</v>
+        <v>3309</v>
       </c>
       <c r="D75" t="s">
-        <v>1119</v>
+        <v>3319</v>
       </c>
       <c r="E75" t="s">
-        <v>1114</v>
+        <v>3311</v>
       </c>
       <c r="F75" t="s">
         <v>41</v>
       </c>
       <c r="G75" s="1">
-        <v>1</v>
+        <v>1818</v>
       </c>
       <c r="H75" t="s">
         <v>27</v>
       </c>
       <c r="I75" t="s">
-        <v>1120</v>
+        <v>3320</v>
       </c>
       <c r="J75" t="s">
-        <v>82</v>
+        <v>3312</v>
       </c>
       <c r="K75" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="L75" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M75" t="s">
-        <v>749</v>
+        <v>3321</v>
       </c>
       <c r="N75" t="s">
-        <v>750</v>
+        <v>2920</v>
       </c>
       <c r="O75" t="s">
-        <v>27</v>
+        <v>3314</v>
       </c>
       <c r="P75" t="s">
-        <v>1116</v>
+        <v>3315</v>
       </c>
       <c r="Q75" t="s">
         <v>27</v>
@@ -19397,52 +19458,52 @@
     </row>
     <row r="77" spans="1:21" ht="13.5" customHeight="1">
       <c r="A77" t="s">
-        <v>1140</v>
+        <v>3070</v>
       </c>
       <c r="B77" t="s">
-        <v>1141</v>
+        <v>3062</v>
       </c>
       <c r="C77" t="s">
-        <v>1134</v>
+        <v>3063</v>
       </c>
       <c r="D77" t="s">
-        <v>1142</v>
+        <v>3071</v>
       </c>
       <c r="E77" t="s">
-        <v>1136</v>
+        <v>3065</v>
       </c>
       <c r="F77" t="s">
         <v>41</v>
       </c>
       <c r="G77" s="1">
-        <v>1</v>
+        <v>1076</v>
       </c>
       <c r="H77" t="s">
         <v>27</v>
       </c>
       <c r="I77" t="s">
-        <v>1143</v>
+        <v>3072</v>
       </c>
       <c r="J77" t="s">
-        <v>82</v>
+        <v>1847</v>
       </c>
       <c r="K77" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="L77" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M77" t="s">
-        <v>749</v>
+        <v>3073</v>
       </c>
       <c r="N77" t="s">
-        <v>750</v>
+        <v>1769</v>
       </c>
       <c r="O77" t="s">
-        <v>27</v>
+        <v>3067</v>
       </c>
       <c r="P77" t="s">
-        <v>1138</v>
+        <v>3068</v>
       </c>
       <c r="Q77" t="s">
         <v>27</v>
@@ -19527,19 +19588,19 @@
     </row>
     <row r="79" spans="1:21" ht="13.5" customHeight="1">
       <c r="A79" t="s">
-        <v>876</v>
+        <v>1081</v>
       </c>
       <c r="B79" t="s">
-        <v>869</v>
+        <v>1082</v>
       </c>
       <c r="C79" t="s">
-        <v>870</v>
+        <v>1075</v>
       </c>
       <c r="D79" t="s">
-        <v>877</v>
+        <v>1083</v>
       </c>
       <c r="E79" t="s">
-        <v>872</v>
+        <v>1077</v>
       </c>
       <c r="F79" t="s">
         <v>41</v>
@@ -19551,7 +19612,7 @@
         <v>27</v>
       </c>
       <c r="I79" t="s">
-        <v>878</v>
+        <v>1084</v>
       </c>
       <c r="J79" t="s">
         <v>82</v>
@@ -19560,7 +19621,7 @@
         <v>52</v>
       </c>
       <c r="L79" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M79" t="s">
         <v>749</v>
@@ -19572,7 +19633,7 @@
         <v>27</v>
       </c>
       <c r="P79" t="s">
-        <v>874</v>
+        <v>1079</v>
       </c>
       <c r="Q79" t="s">
         <v>27</v>
@@ -19657,19 +19718,19 @@
     </row>
     <row r="81" spans="1:21" ht="13.5" customHeight="1">
       <c r="A81" t="s">
-        <v>887</v>
+        <v>1118</v>
       </c>
       <c r="B81" t="s">
-        <v>880</v>
+        <v>1111</v>
       </c>
       <c r="C81" t="s">
-        <v>881</v>
+        <v>1112</v>
       </c>
       <c r="D81" t="s">
-        <v>888</v>
+        <v>1119</v>
       </c>
       <c r="E81" t="s">
-        <v>883</v>
+        <v>1114</v>
       </c>
       <c r="F81" t="s">
         <v>41</v>
@@ -19681,7 +19742,7 @@
         <v>27</v>
       </c>
       <c r="I81" t="s">
-        <v>889</v>
+        <v>1120</v>
       </c>
       <c r="J81" t="s">
         <v>82</v>
@@ -19702,7 +19763,7 @@
         <v>27</v>
       </c>
       <c r="P81" t="s">
-        <v>885</v>
+        <v>1116</v>
       </c>
       <c r="Q81" t="s">
         <v>27</v>
@@ -19787,19 +19848,19 @@
     </row>
     <row r="83" spans="1:21" ht="13.5" customHeight="1">
       <c r="A83" t="s">
-        <v>1129</v>
+        <v>1140</v>
       </c>
       <c r="B83" t="s">
-        <v>1122</v>
+        <v>1141</v>
       </c>
       <c r="C83" t="s">
-        <v>1123</v>
+        <v>1134</v>
       </c>
       <c r="D83" t="s">
-        <v>1130</v>
+        <v>1142</v>
       </c>
       <c r="E83" t="s">
-        <v>1125</v>
+        <v>1136</v>
       </c>
       <c r="F83" t="s">
         <v>41</v>
@@ -19811,7 +19872,7 @@
         <v>27</v>
       </c>
       <c r="I83" t="s">
-        <v>1131</v>
+        <v>1143</v>
       </c>
       <c r="J83" t="s">
         <v>82</v>
@@ -19832,7 +19893,7 @@
         <v>27</v>
       </c>
       <c r="P83" t="s">
-        <v>1127</v>
+        <v>1138</v>
       </c>
       <c r="Q83" t="s">
         <v>27</v>
@@ -19917,19 +19978,19 @@
     </row>
     <row r="85" spans="1:21" ht="13.5" customHeight="1">
       <c r="A85" t="s">
-        <v>1004</v>
+        <v>876</v>
       </c>
       <c r="B85" t="s">
-        <v>997</v>
+        <v>869</v>
       </c>
       <c r="C85" t="s">
-        <v>998</v>
+        <v>870</v>
       </c>
       <c r="D85" t="s">
-        <v>1005</v>
+        <v>877</v>
       </c>
       <c r="E85" t="s">
-        <v>1000</v>
+        <v>872</v>
       </c>
       <c r="F85" t="s">
         <v>41</v>
@@ -19941,7 +20002,7 @@
         <v>27</v>
       </c>
       <c r="I85" t="s">
-        <v>1006</v>
+        <v>878</v>
       </c>
       <c r="J85" t="s">
         <v>82</v>
@@ -19950,7 +20011,7 @@
         <v>52</v>
       </c>
       <c r="L85" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M85" t="s">
         <v>749</v>
@@ -19962,7 +20023,7 @@
         <v>27</v>
       </c>
       <c r="P85" t="s">
-        <v>1002</v>
+        <v>874</v>
       </c>
       <c r="Q85" t="s">
         <v>27</v>
@@ -20047,19 +20108,19 @@
     </row>
     <row r="87" spans="1:21" ht="13.5" customHeight="1">
       <c r="A87" t="s">
-        <v>823</v>
+        <v>887</v>
       </c>
       <c r="B87" t="s">
-        <v>816</v>
+        <v>880</v>
       </c>
       <c r="C87" t="s">
-        <v>817</v>
+        <v>881</v>
       </c>
       <c r="D87" t="s">
-        <v>824</v>
+        <v>888</v>
       </c>
       <c r="E87" t="s">
-        <v>819</v>
+        <v>883</v>
       </c>
       <c r="F87" t="s">
         <v>41</v>
@@ -20071,7 +20132,7 @@
         <v>27</v>
       </c>
       <c r="I87" t="s">
-        <v>825</v>
+        <v>889</v>
       </c>
       <c r="J87" t="s">
         <v>82</v>
@@ -20080,7 +20141,7 @@
         <v>52</v>
       </c>
       <c r="L87" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M87" t="s">
         <v>749</v>
@@ -20092,7 +20153,7 @@
         <v>27</v>
       </c>
       <c r="P87" t="s">
-        <v>821</v>
+        <v>885</v>
       </c>
       <c r="Q87" t="s">
         <v>27</v>
@@ -20177,19 +20238,19 @@
     </row>
     <row r="89" spans="1:21" ht="13.5" customHeight="1">
       <c r="A89" t="s">
-        <v>1058</v>
+        <v>1129</v>
       </c>
       <c r="B89" t="s">
-        <v>1051</v>
+        <v>1122</v>
       </c>
       <c r="C89" t="s">
-        <v>1052</v>
+        <v>1123</v>
       </c>
       <c r="D89" t="s">
-        <v>1059</v>
+        <v>1130</v>
       </c>
       <c r="E89" t="s">
-        <v>1054</v>
+        <v>1125</v>
       </c>
       <c r="F89" t="s">
         <v>41</v>
@@ -20201,7 +20262,7 @@
         <v>27</v>
       </c>
       <c r="I89" t="s">
-        <v>1060</v>
+        <v>1131</v>
       </c>
       <c r="J89" t="s">
         <v>82</v>
@@ -20210,7 +20271,7 @@
         <v>52</v>
       </c>
       <c r="L89" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M89" t="s">
         <v>749</v>
@@ -20222,7 +20283,7 @@
         <v>27</v>
       </c>
       <c r="P89" t="s">
-        <v>1056</v>
+        <v>1127</v>
       </c>
       <c r="Q89" t="s">
         <v>27</v>
@@ -20307,19 +20368,19 @@
     </row>
     <row r="91" spans="1:21" ht="13.5" customHeight="1">
       <c r="A91" t="s">
-        <v>759</v>
+        <v>1004</v>
       </c>
       <c r="B91" t="s">
-        <v>760</v>
+        <v>997</v>
       </c>
       <c r="C91" t="s">
-        <v>753</v>
+        <v>998</v>
       </c>
       <c r="D91" t="s">
-        <v>761</v>
+        <v>1005</v>
       </c>
       <c r="E91" t="s">
-        <v>755</v>
+        <v>1000</v>
       </c>
       <c r="F91" t="s">
         <v>41</v>
@@ -20331,7 +20392,7 @@
         <v>27</v>
       </c>
       <c r="I91" t="s">
-        <v>762</v>
+        <v>1006</v>
       </c>
       <c r="J91" t="s">
         <v>82</v>
@@ -20340,7 +20401,7 @@
         <v>52</v>
       </c>
       <c r="L91" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M91" t="s">
         <v>749</v>
@@ -20352,7 +20413,7 @@
         <v>27</v>
       </c>
       <c r="P91" t="s">
-        <v>757</v>
+        <v>1002</v>
       </c>
       <c r="Q91" t="s">
         <v>27</v>
@@ -20437,19 +20498,19 @@
     </row>
     <row r="93" spans="1:21" ht="13.5" customHeight="1">
       <c r="A93" t="s">
-        <v>745</v>
+        <v>823</v>
       </c>
       <c r="B93" t="s">
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="C93" t="s">
-        <v>739</v>
+        <v>817</v>
       </c>
       <c r="D93" t="s">
-        <v>747</v>
+        <v>824</v>
       </c>
       <c r="E93" t="s">
-        <v>741</v>
+        <v>819</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
@@ -20461,7 +20522,7 @@
         <v>27</v>
       </c>
       <c r="I93" t="s">
-        <v>748</v>
+        <v>825</v>
       </c>
       <c r="J93" t="s">
         <v>82</v>
@@ -20482,7 +20543,7 @@
         <v>27</v>
       </c>
       <c r="P93" t="s">
-        <v>743</v>
+        <v>821</v>
       </c>
       <c r="Q93" t="s">
         <v>27</v>
@@ -20567,31 +20628,31 @@
     </row>
     <row r="95" spans="1:21" ht="13.5" customHeight="1">
       <c r="A95" t="s">
-        <v>1550</v>
+        <v>1058</v>
       </c>
       <c r="B95" t="s">
-        <v>1551</v>
+        <v>1051</v>
       </c>
       <c r="C95" t="s">
-        <v>1544</v>
+        <v>1052</v>
       </c>
       <c r="D95" t="s">
-        <v>1552</v>
+        <v>1059</v>
       </c>
       <c r="E95" t="s">
-        <v>1546</v>
+        <v>1054</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
       </c>
       <c r="G95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>27</v>
       </c>
       <c r="I95" t="s">
-        <v>1553</v>
+        <v>1060</v>
       </c>
       <c r="J95" t="s">
         <v>82</v>
@@ -20600,7 +20661,7 @@
         <v>52</v>
       </c>
       <c r="L95" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M95" t="s">
         <v>749</v>
@@ -20612,7 +20673,7 @@
         <v>27</v>
       </c>
       <c r="P95" t="s">
-        <v>1548</v>
+        <v>1056</v>
       </c>
       <c r="Q95" t="s">
         <v>27</v>
@@ -20697,19 +20758,19 @@
     </row>
     <row r="97" spans="1:21" ht="13.5" customHeight="1">
       <c r="A97" t="s">
-        <v>1069</v>
+        <v>759</v>
       </c>
       <c r="B97" t="s">
-        <v>1070</v>
+        <v>760</v>
       </c>
       <c r="C97" t="s">
-        <v>1063</v>
+        <v>753</v>
       </c>
       <c r="D97" t="s">
-        <v>1071</v>
+        <v>761</v>
       </c>
       <c r="E97" t="s">
-        <v>1065</v>
+        <v>755</v>
       </c>
       <c r="F97" t="s">
         <v>41</v>
@@ -20721,7 +20782,7 @@
         <v>27</v>
       </c>
       <c r="I97" t="s">
-        <v>1072</v>
+        <v>762</v>
       </c>
       <c r="J97" t="s">
         <v>82</v>
@@ -20730,7 +20791,7 @@
         <v>52</v>
       </c>
       <c r="L97" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M97" t="s">
         <v>749</v>
@@ -20742,7 +20803,7 @@
         <v>27</v>
       </c>
       <c r="P97" t="s">
-        <v>1067</v>
+        <v>757</v>
       </c>
       <c r="Q97" t="s">
         <v>27</v>
@@ -20827,19 +20888,19 @@
     </row>
     <row r="99" spans="1:21" ht="13.5" customHeight="1">
       <c r="A99" t="s">
-        <v>958</v>
+        <v>745</v>
       </c>
       <c r="B99" t="s">
-        <v>951</v>
+        <v>746</v>
       </c>
       <c r="C99" t="s">
-        <v>952</v>
+        <v>739</v>
       </c>
       <c r="D99" t="s">
-        <v>959</v>
+        <v>747</v>
       </c>
       <c r="E99" t="s">
-        <v>954</v>
+        <v>741</v>
       </c>
       <c r="F99" t="s">
         <v>41</v>
@@ -20851,7 +20912,7 @@
         <v>27</v>
       </c>
       <c r="I99" t="s">
-        <v>960</v>
+        <v>748</v>
       </c>
       <c r="J99" t="s">
         <v>82</v>
@@ -20860,7 +20921,7 @@
         <v>52</v>
       </c>
       <c r="L99" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M99" t="s">
         <v>749</v>
@@ -20872,7 +20933,7 @@
         <v>27</v>
       </c>
       <c r="P99" t="s">
-        <v>956</v>
+        <v>743</v>
       </c>
       <c r="Q99" t="s">
         <v>27</v>
@@ -20957,31 +21018,31 @@
     </row>
     <row r="101" spans="1:21" ht="13.5" customHeight="1">
       <c r="A101" t="s">
-        <v>946</v>
+        <v>1550</v>
       </c>
       <c r="B101" t="s">
-        <v>947</v>
+        <v>1551</v>
       </c>
       <c r="C101" t="s">
-        <v>940</v>
+        <v>1544</v>
       </c>
       <c r="D101" t="s">
-        <v>948</v>
+        <v>1552</v>
       </c>
       <c r="E101" t="s">
-        <v>942</v>
+        <v>1546</v>
       </c>
       <c r="F101" t="s">
         <v>41</v>
       </c>
       <c r="G101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="s">
         <v>27</v>
       </c>
       <c r="I101" t="s">
-        <v>949</v>
+        <v>1553</v>
       </c>
       <c r="J101" t="s">
         <v>82</v>
@@ -21002,7 +21063,7 @@
         <v>27</v>
       </c>
       <c r="P101" t="s">
-        <v>944</v>
+        <v>1548</v>
       </c>
       <c r="Q101" t="s">
         <v>27</v>
@@ -21087,19 +21148,19 @@
     </row>
     <row r="103" spans="1:21" ht="13.5" customHeight="1">
       <c r="A103" t="s">
-        <v>864</v>
+        <v>1069</v>
       </c>
       <c r="B103" t="s">
-        <v>865</v>
+        <v>1070</v>
       </c>
       <c r="C103" t="s">
-        <v>858</v>
+        <v>1063</v>
       </c>
       <c r="D103" t="s">
-        <v>866</v>
+        <v>1071</v>
       </c>
       <c r="E103" t="s">
-        <v>860</v>
+        <v>1065</v>
       </c>
       <c r="F103" t="s">
         <v>41</v>
@@ -21111,7 +21172,7 @@
         <v>27</v>
       </c>
       <c r="I103" t="s">
-        <v>867</v>
+        <v>1072</v>
       </c>
       <c r="J103" t="s">
         <v>82</v>
@@ -21120,7 +21181,7 @@
         <v>52</v>
       </c>
       <c r="L103" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M103" t="s">
         <v>749</v>
@@ -21132,7 +21193,7 @@
         <v>27</v>
       </c>
       <c r="P103" t="s">
-        <v>862</v>
+        <v>1067</v>
       </c>
       <c r="Q103" t="s">
         <v>27</v>
@@ -21217,19 +21278,19 @@
     </row>
     <row r="105" spans="1:21" ht="13.5" customHeight="1">
       <c r="A105" t="s">
-        <v>797</v>
+        <v>958</v>
       </c>
       <c r="B105" t="s">
-        <v>798</v>
+        <v>951</v>
       </c>
       <c r="C105" t="s">
-        <v>791</v>
+        <v>952</v>
       </c>
       <c r="D105" t="s">
-        <v>799</v>
+        <v>959</v>
       </c>
       <c r="E105" t="s">
-        <v>793</v>
+        <v>954</v>
       </c>
       <c r="F105" t="s">
         <v>41</v>
@@ -21241,7 +21302,7 @@
         <v>27</v>
       </c>
       <c r="I105" t="s">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="J105" t="s">
         <v>82</v>
@@ -21250,7 +21311,7 @@
         <v>52</v>
       </c>
       <c r="L105" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M105" t="s">
         <v>749</v>
@@ -21262,7 +21323,7 @@
         <v>27</v>
       </c>
       <c r="P105" t="s">
-        <v>795</v>
+        <v>956</v>
       </c>
       <c r="Q105" t="s">
         <v>27</v>
@@ -21347,19 +21408,19 @@
     </row>
     <row r="107" spans="1:21" ht="13.5" customHeight="1">
       <c r="A107" t="s">
-        <v>785</v>
+        <v>946</v>
       </c>
       <c r="B107" t="s">
-        <v>786</v>
+        <v>947</v>
       </c>
       <c r="C107" t="s">
-        <v>779</v>
+        <v>940</v>
       </c>
       <c r="D107" t="s">
-        <v>787</v>
+        <v>948</v>
       </c>
       <c r="E107" t="s">
-        <v>781</v>
+        <v>942</v>
       </c>
       <c r="F107" t="s">
         <v>41</v>
@@ -21371,7 +21432,7 @@
         <v>27</v>
       </c>
       <c r="I107" t="s">
-        <v>788</v>
+        <v>949</v>
       </c>
       <c r="J107" t="s">
         <v>82</v>
@@ -21380,7 +21441,7 @@
         <v>52</v>
       </c>
       <c r="L107" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M107" t="s">
         <v>749</v>
@@ -21392,7 +21453,7 @@
         <v>27</v>
       </c>
       <c r="P107" t="s">
-        <v>783</v>
+        <v>944</v>
       </c>
       <c r="Q107" t="s">
         <v>27</v>
@@ -21477,19 +21538,19 @@
     </row>
     <row r="109" spans="1:21" ht="13.5" customHeight="1">
       <c r="A109" t="s">
-        <v>898</v>
+        <v>864</v>
       </c>
       <c r="B109" t="s">
-        <v>899</v>
+        <v>865</v>
       </c>
       <c r="C109" t="s">
-        <v>892</v>
+        <v>858</v>
       </c>
       <c r="D109" t="s">
-        <v>900</v>
+        <v>866</v>
       </c>
       <c r="E109" t="s">
-        <v>894</v>
+        <v>860</v>
       </c>
       <c r="F109" t="s">
         <v>41</v>
@@ -21501,7 +21562,7 @@
         <v>27</v>
       </c>
       <c r="I109" t="s">
-        <v>901</v>
+        <v>867</v>
       </c>
       <c r="J109" t="s">
         <v>82</v>
@@ -21522,7 +21583,7 @@
         <v>27</v>
       </c>
       <c r="P109" t="s">
-        <v>896</v>
+        <v>862</v>
       </c>
       <c r="Q109" t="s">
         <v>27</v>
@@ -21607,19 +21668,19 @@
     </row>
     <row r="111" spans="1:21" ht="13.5" customHeight="1">
       <c r="A111" t="s">
-        <v>1926</v>
+        <v>797</v>
       </c>
       <c r="B111" t="s">
-        <v>1927</v>
+        <v>798</v>
       </c>
       <c r="C111" t="s">
-        <v>1920</v>
+        <v>791</v>
       </c>
       <c r="D111" t="s">
-        <v>1928</v>
+        <v>799</v>
       </c>
       <c r="E111" t="s">
-        <v>1922</v>
+        <v>793</v>
       </c>
       <c r="F111" t="s">
         <v>41</v>
@@ -21631,7 +21692,7 @@
         <v>27</v>
       </c>
       <c r="I111" t="s">
-        <v>1929</v>
+        <v>800</v>
       </c>
       <c r="J111" t="s">
         <v>82</v>
@@ -21652,7 +21713,7 @@
         <v>27</v>
       </c>
       <c r="P111" t="s">
-        <v>1924</v>
+        <v>795</v>
       </c>
       <c r="Q111" t="s">
         <v>27</v>
@@ -21737,19 +21798,19 @@
     </row>
     <row r="113" spans="1:21" ht="13.5" customHeight="1">
       <c r="A113" t="s">
-        <v>1953</v>
+        <v>785</v>
       </c>
       <c r="B113" t="s">
-        <v>1946</v>
+        <v>786</v>
       </c>
       <c r="C113" t="s">
-        <v>1947</v>
+        <v>779</v>
       </c>
       <c r="D113" t="s">
-        <v>1954</v>
+        <v>787</v>
       </c>
       <c r="E113" t="s">
-        <v>1949</v>
+        <v>781</v>
       </c>
       <c r="F113" t="s">
         <v>41</v>
@@ -21761,7 +21822,7 @@
         <v>27</v>
       </c>
       <c r="I113" t="s">
-        <v>1955</v>
+        <v>788</v>
       </c>
       <c r="J113" t="s">
         <v>82</v>
@@ -21770,7 +21831,7 @@
         <v>52</v>
       </c>
       <c r="L113" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M113" t="s">
         <v>749</v>
@@ -21782,7 +21843,7 @@
         <v>27</v>
       </c>
       <c r="P113" t="s">
-        <v>1951</v>
+        <v>783</v>
       </c>
       <c r="Q113" t="s">
         <v>27</v>
@@ -21867,19 +21928,19 @@
     </row>
     <row r="115" spans="1:21" ht="13.5" customHeight="1">
       <c r="A115" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="B115" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C115" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="D115" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="E115" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="F115" t="s">
         <v>41</v>
@@ -21891,7 +21952,7 @@
         <v>27</v>
       </c>
       <c r="I115" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="J115" t="s">
         <v>82</v>
@@ -21912,7 +21973,7 @@
         <v>27</v>
       </c>
       <c r="P115" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="Q115" t="s">
         <v>27</v>
@@ -21997,34 +22058,34 @@
     </row>
     <row r="117" spans="1:21" ht="13.5" customHeight="1">
       <c r="A117" t="s">
-        <v>1993</v>
+        <v>1926</v>
       </c>
       <c r="B117" t="s">
-        <v>1994</v>
+        <v>1927</v>
       </c>
       <c r="C117" t="s">
-        <v>1995</v>
+        <v>1920</v>
       </c>
       <c r="D117" t="s">
-        <v>1996</v>
+        <v>1928</v>
       </c>
       <c r="E117" t="s">
-        <v>1997</v>
+        <v>1922</v>
       </c>
       <c r="F117" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G117" t="s">
-        <v>27</v>
-      </c>
-      <c r="H117" s="1">
+        <v>41</v>
+      </c>
+      <c r="G117" s="3">
         <v>1</v>
       </c>
+      <c r="H117" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I117" t="s">
-        <v>1998</v>
+        <v>1929</v>
       </c>
       <c r="J117" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="K117" t="s">
         <v>52</v>
@@ -22042,10 +22103,10 @@
         <v>27</v>
       </c>
       <c r="P117" t="s">
-        <v>1999</v>
+        <v>1924</v>
       </c>
       <c r="Q117" t="s">
-        <v>1992</v>
+        <v>27</v>
       </c>
       <c r="R117" t="s">
         <v>27</v>
@@ -22127,19 +22188,19 @@
     </row>
     <row r="119" spans="1:21" ht="13.5" customHeight="1">
       <c r="A119" t="s">
-        <v>2034</v>
+        <v>1953</v>
       </c>
       <c r="B119" t="s">
-        <v>2035</v>
+        <v>1946</v>
       </c>
       <c r="C119" t="s">
-        <v>1995</v>
+        <v>1947</v>
       </c>
       <c r="D119" t="s">
-        <v>2036</v>
+        <v>1954</v>
       </c>
       <c r="E119" t="s">
-        <v>1997</v>
+        <v>1949</v>
       </c>
       <c r="F119" t="s">
         <v>41</v>
@@ -22151,7 +22212,7 @@
         <v>27</v>
       </c>
       <c r="I119" t="s">
-        <v>2037</v>
+        <v>1955</v>
       </c>
       <c r="J119" t="s">
         <v>82</v>
@@ -22160,7 +22221,7 @@
         <v>52</v>
       </c>
       <c r="L119" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M119" t="s">
         <v>749</v>
@@ -22172,7 +22233,7 @@
         <v>27</v>
       </c>
       <c r="P119" t="s">
-        <v>1999</v>
+        <v>1951</v>
       </c>
       <c r="Q119" t="s">
         <v>27</v>
@@ -22257,19 +22318,19 @@
     </row>
     <row r="121" spans="1:21" ht="13.5" customHeight="1">
       <c r="A121" t="s">
-        <v>1152</v>
+        <v>910</v>
       </c>
       <c r="B121" t="s">
-        <v>1153</v>
+        <v>903</v>
       </c>
       <c r="C121" t="s">
-        <v>1146</v>
+        <v>904</v>
       </c>
       <c r="D121" t="s">
-        <v>1154</v>
+        <v>911</v>
       </c>
       <c r="E121" t="s">
-        <v>1148</v>
+        <v>906</v>
       </c>
       <c r="F121" t="s">
         <v>41</v>
@@ -22281,7 +22342,7 @@
         <v>27</v>
       </c>
       <c r="I121" t="s">
-        <v>1155</v>
+        <v>912</v>
       </c>
       <c r="J121" t="s">
         <v>82</v>
@@ -22290,7 +22351,7 @@
         <v>52</v>
       </c>
       <c r="L121" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M121" t="s">
         <v>749</v>
@@ -22302,7 +22363,7 @@
         <v>27</v>
       </c>
       <c r="P121" t="s">
-        <v>1150</v>
+        <v>908</v>
       </c>
       <c r="Q121" t="s">
         <v>27</v>
@@ -22387,19 +22448,19 @@
     </row>
     <row r="123" spans="1:21" ht="13.5" customHeight="1">
       <c r="A123" t="s">
-        <v>1667</v>
+        <v>2034</v>
       </c>
       <c r="B123" t="s">
-        <v>1660</v>
+        <v>2035</v>
       </c>
       <c r="C123" t="s">
-        <v>1661</v>
+        <v>1995</v>
       </c>
       <c r="D123" t="s">
-        <v>1668</v>
+        <v>2036</v>
       </c>
       <c r="E123" t="s">
-        <v>1663</v>
+        <v>1997</v>
       </c>
       <c r="F123" t="s">
         <v>41</v>
@@ -22411,7 +22472,7 @@
         <v>27</v>
       </c>
       <c r="I123" t="s">
-        <v>1669</v>
+        <v>2037</v>
       </c>
       <c r="J123" t="s">
         <v>82</v>
@@ -22420,7 +22481,7 @@
         <v>52</v>
       </c>
       <c r="L123" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M123" t="s">
         <v>749</v>
@@ -22432,7 +22493,7 @@
         <v>27</v>
       </c>
       <c r="P123" t="s">
-        <v>1665</v>
+        <v>1999</v>
       </c>
       <c r="Q123" t="s">
         <v>27</v>
@@ -22517,19 +22578,19 @@
     </row>
     <row r="125" spans="1:21" ht="13.5" customHeight="1">
       <c r="A125" t="s">
-        <v>935</v>
+        <v>1152</v>
       </c>
       <c r="B125" t="s">
-        <v>928</v>
+        <v>1153</v>
       </c>
       <c r="C125" t="s">
-        <v>929</v>
+        <v>1146</v>
       </c>
       <c r="D125" t="s">
-        <v>936</v>
+        <v>1154</v>
       </c>
       <c r="E125" t="s">
-        <v>931</v>
+        <v>1148</v>
       </c>
       <c r="F125" t="s">
         <v>41</v>
@@ -22541,7 +22602,7 @@
         <v>27</v>
       </c>
       <c r="I125" t="s">
-        <v>937</v>
+        <v>1155</v>
       </c>
       <c r="J125" t="s">
         <v>82</v>
@@ -22562,7 +22623,7 @@
         <v>27</v>
       </c>
       <c r="P125" t="s">
-        <v>933</v>
+        <v>1150</v>
       </c>
       <c r="Q125" t="s">
         <v>27</v>
@@ -22647,19 +22708,19 @@
     </row>
     <row r="127" spans="1:21" ht="13.5" customHeight="1">
       <c r="A127" t="s">
-        <v>2509</v>
+        <v>1667</v>
       </c>
       <c r="B127" t="s">
-        <v>2510</v>
+        <v>1660</v>
       </c>
       <c r="C127" t="s">
-        <v>2503</v>
+        <v>1661</v>
       </c>
       <c r="D127" t="s">
-        <v>2511</v>
+        <v>1668</v>
       </c>
       <c r="E127" t="s">
-        <v>2505</v>
+        <v>1663</v>
       </c>
       <c r="F127" t="s">
         <v>41</v>
@@ -22671,7 +22732,7 @@
         <v>27</v>
       </c>
       <c r="I127" t="s">
-        <v>2512</v>
+        <v>1669</v>
       </c>
       <c r="J127" t="s">
         <v>82</v>
@@ -22680,7 +22741,7 @@
         <v>52</v>
       </c>
       <c r="L127" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M127" t="s">
         <v>749</v>
@@ -22692,7 +22753,7 @@
         <v>27</v>
       </c>
       <c r="P127" t="s">
-        <v>2507</v>
+        <v>1665</v>
       </c>
       <c r="Q127" t="s">
         <v>27</v>
@@ -22777,40 +22838,40 @@
     </row>
     <row r="129" spans="1:21" ht="13.5" customHeight="1">
       <c r="A129" t="s">
-        <v>1984</v>
+        <v>935</v>
       </c>
       <c r="B129" t="s">
-        <v>1985</v>
+        <v>928</v>
       </c>
       <c r="C129" t="s">
-        <v>1986</v>
+        <v>929</v>
       </c>
       <c r="D129" t="s">
-        <v>1987</v>
+        <v>936</v>
       </c>
       <c r="E129" t="s">
-        <v>1988</v>
+        <v>931</v>
       </c>
       <c r="F129" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G129" t="s">
-        <v>27</v>
-      </c>
-      <c r="H129" s="1">
+        <v>41</v>
+      </c>
+      <c r="G129" s="3">
         <v>1</v>
       </c>
+      <c r="H129" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I129" t="s">
-        <v>1990</v>
+        <v>937</v>
       </c>
       <c r="J129" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="K129" t="s">
         <v>52</v>
       </c>
       <c r="L129" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M129" t="s">
         <v>749</v>
@@ -22822,10 +22883,10 @@
         <v>27</v>
       </c>
       <c r="P129" t="s">
-        <v>1991</v>
+        <v>933</v>
       </c>
       <c r="Q129" t="s">
-        <v>1992</v>
+        <v>27</v>
       </c>
       <c r="R129" t="s">
         <v>27</v>
@@ -22907,19 +22968,19 @@
     </row>
     <row r="131" spans="1:21" ht="13.5" customHeight="1">
       <c r="A131" t="s">
-        <v>2087</v>
+        <v>2509</v>
       </c>
       <c r="B131" t="s">
-        <v>2088</v>
+        <v>2510</v>
       </c>
       <c r="C131" t="s">
-        <v>1986</v>
+        <v>2503</v>
       </c>
       <c r="D131" t="s">
-        <v>2089</v>
+        <v>2511</v>
       </c>
       <c r="E131" t="s">
-        <v>1988</v>
+        <v>2505</v>
       </c>
       <c r="F131" t="s">
         <v>41</v>
@@ -22931,7 +22992,7 @@
         <v>27</v>
       </c>
       <c r="I131" t="s">
-        <v>2090</v>
+        <v>2512</v>
       </c>
       <c r="J131" t="s">
         <v>82</v>
@@ -22952,7 +23013,7 @@
         <v>27</v>
       </c>
       <c r="P131" t="s">
-        <v>1991</v>
+        <v>2507</v>
       </c>
       <c r="Q131" t="s">
         <v>27</v>
@@ -23037,19 +23098,19 @@
     </row>
     <row r="133" spans="1:21" ht="13.5" customHeight="1">
       <c r="A133" t="s">
-        <v>980</v>
+        <v>2087</v>
       </c>
       <c r="B133" t="s">
-        <v>981</v>
+        <v>2088</v>
       </c>
       <c r="C133" t="s">
-        <v>974</v>
+        <v>1986</v>
       </c>
       <c r="D133" t="s">
-        <v>982</v>
+        <v>2089</v>
       </c>
       <c r="E133" t="s">
-        <v>976</v>
+        <v>1988</v>
       </c>
       <c r="F133" t="s">
         <v>41</v>
@@ -23061,7 +23122,7 @@
         <v>27</v>
       </c>
       <c r="I133" t="s">
-        <v>983</v>
+        <v>2090</v>
       </c>
       <c r="J133" t="s">
         <v>82</v>
@@ -23070,7 +23131,7 @@
         <v>52</v>
       </c>
       <c r="L133" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M133" t="s">
         <v>749</v>
@@ -23082,7 +23143,7 @@
         <v>27</v>
       </c>
       <c r="P133" t="s">
-        <v>978</v>
+        <v>1991</v>
       </c>
       <c r="Q133" t="s">
         <v>27</v>
@@ -23167,19 +23228,19 @@
     </row>
     <row r="135" spans="1:21" ht="13.5" customHeight="1">
       <c r="A135" t="s">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="B135" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="C135" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="D135" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="E135" t="s">
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="F135" t="s">
         <v>41</v>
@@ -23191,7 +23252,7 @@
         <v>27</v>
       </c>
       <c r="I135" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="J135" t="s">
         <v>82</v>
@@ -23200,7 +23261,7 @@
         <v>52</v>
       </c>
       <c r="L135" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M135" t="s">
         <v>749</v>
@@ -23212,7 +23273,7 @@
         <v>27</v>
       </c>
       <c r="P135" t="s">
-        <v>967</v>
+        <v>978</v>
       </c>
       <c r="Q135" t="s">
         <v>27</v>
@@ -23297,19 +23358,19 @@
     </row>
     <row r="137" spans="1:21" ht="13.5" customHeight="1">
       <c r="A137" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="B137" t="s">
-        <v>993</v>
+        <v>962</v>
       </c>
       <c r="C137" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
       <c r="D137" t="s">
-        <v>994</v>
+        <v>970</v>
       </c>
       <c r="E137" t="s">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="F137" t="s">
         <v>41</v>
@@ -23321,7 +23382,7 @@
         <v>27</v>
       </c>
       <c r="I137" t="s">
-        <v>995</v>
+        <v>971</v>
       </c>
       <c r="J137" t="s">
         <v>82</v>
@@ -23330,7 +23391,7 @@
         <v>52</v>
       </c>
       <c r="L137" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M137" t="s">
         <v>749</v>
@@ -23342,7 +23403,7 @@
         <v>27</v>
       </c>
       <c r="P137" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="Q137" t="s">
         <v>27</v>
@@ -23427,19 +23488,19 @@
     </row>
     <row r="139" spans="1:21" ht="13.5" customHeight="1">
       <c r="A139" t="s">
-        <v>1539</v>
+        <v>992</v>
       </c>
       <c r="B139" t="s">
-        <v>1532</v>
+        <v>993</v>
       </c>
       <c r="C139" t="s">
-        <v>1533</v>
+        <v>986</v>
       </c>
       <c r="D139" t="s">
-        <v>1540</v>
+        <v>994</v>
       </c>
       <c r="E139" t="s">
-        <v>1535</v>
+        <v>988</v>
       </c>
       <c r="F139" t="s">
         <v>41</v>
@@ -23451,7 +23512,7 @@
         <v>27</v>
       </c>
       <c r="I139" t="s">
-        <v>1541</v>
+        <v>995</v>
       </c>
       <c r="J139" t="s">
         <v>82</v>
@@ -23472,7 +23533,7 @@
         <v>27</v>
       </c>
       <c r="P139" t="s">
-        <v>1537</v>
+        <v>990</v>
       </c>
       <c r="Q139" t="s">
         <v>27</v>
@@ -23557,19 +23618,19 @@
     </row>
     <row r="141" spans="1:21" ht="13.5" customHeight="1">
       <c r="A141" t="s">
-        <v>3041</v>
+        <v>1539</v>
       </c>
       <c r="B141" t="s">
-        <v>3042</v>
+        <v>1532</v>
       </c>
       <c r="C141" t="s">
-        <v>3034</v>
+        <v>1533</v>
       </c>
       <c r="D141" t="s">
-        <v>3043</v>
+        <v>1540</v>
       </c>
       <c r="E141" t="s">
-        <v>3036</v>
+        <v>1535</v>
       </c>
       <c r="F141" t="s">
         <v>41</v>
@@ -23581,28 +23642,28 @@
         <v>27</v>
       </c>
       <c r="I141" t="s">
-        <v>3044</v>
+        <v>1541</v>
       </c>
       <c r="J141" t="s">
         <v>82</v>
       </c>
       <c r="K141" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="L141" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M141" t="s">
-        <v>3045</v>
+        <v>749</v>
       </c>
       <c r="N141" t="s">
-        <v>2526</v>
+        <v>750</v>
       </c>
       <c r="O141" t="s">
-        <v>3038</v>
+        <v>27</v>
       </c>
       <c r="P141" t="s">
-        <v>3039</v>
+        <v>1537</v>
       </c>
       <c r="Q141" t="s">
         <v>27</v>
@@ -23687,34 +23748,34 @@
     </row>
     <row r="143" spans="1:21" ht="13.5" customHeight="1">
       <c r="A143" t="s">
-        <v>1821</v>
+        <v>3041</v>
       </c>
       <c r="B143" t="s">
-        <v>1822</v>
+        <v>3042</v>
       </c>
       <c r="C143" t="s">
-        <v>1814</v>
+        <v>3034</v>
       </c>
       <c r="D143" t="s">
-        <v>1823</v>
+        <v>3043</v>
       </c>
       <c r="E143" t="s">
-        <v>1816</v>
+        <v>3036</v>
       </c>
       <c r="F143" t="s">
         <v>41</v>
       </c>
       <c r="G143" s="1">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H143" t="s">
         <v>27</v>
       </c>
       <c r="I143" t="s">
-        <v>1824</v>
+        <v>3044</v>
       </c>
       <c r="J143" t="s">
-        <v>1731</v>
+        <v>82</v>
       </c>
       <c r="K143" t="s">
         <v>84</v>
@@ -23723,16 +23784,16 @@
         <v>32</v>
       </c>
       <c r="M143" t="s">
-        <v>1825</v>
+        <v>3045</v>
       </c>
       <c r="N143" t="s">
-        <v>1826</v>
+        <v>2526</v>
       </c>
       <c r="O143" t="s">
-        <v>1818</v>
+        <v>3038</v>
       </c>
       <c r="P143" t="s">
-        <v>1819</v>
+        <v>3039</v>
       </c>
       <c r="Q143" t="s">
         <v>27</v>
@@ -23817,34 +23878,34 @@
     </row>
     <row r="145" spans="1:21" ht="13.5" customHeight="1">
       <c r="A145" t="s">
-        <v>1654</v>
+        <v>1821</v>
       </c>
       <c r="B145" t="s">
-        <v>1646</v>
+        <v>1822</v>
       </c>
       <c r="C145" t="s">
-        <v>1647</v>
+        <v>1814</v>
       </c>
       <c r="D145" t="s">
-        <v>1655</v>
+        <v>1823</v>
       </c>
       <c r="E145" t="s">
-        <v>1649</v>
+        <v>1816</v>
       </c>
       <c r="F145" t="s">
         <v>41</v>
       </c>
       <c r="G145" s="1">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="H145" t="s">
         <v>27</v>
       </c>
       <c r="I145" t="s">
-        <v>1656</v>
+        <v>1824</v>
       </c>
       <c r="J145" t="s">
-        <v>179</v>
+        <v>1731</v>
       </c>
       <c r="K145" t="s">
         <v>84</v>
@@ -23853,16 +23914,16 @@
         <v>32</v>
       </c>
       <c r="M145" t="s">
-        <v>1657</v>
+        <v>1825</v>
       </c>
       <c r="N145" t="s">
-        <v>1658</v>
+        <v>1826</v>
       </c>
       <c r="O145" t="s">
-        <v>1651</v>
+        <v>1818</v>
       </c>
       <c r="P145" t="s">
-        <v>1652</v>
+        <v>1819</v>
       </c>
       <c r="Q145" t="s">
         <v>27</v>
@@ -23947,34 +24008,34 @@
     </row>
     <row r="147" spans="1:21" ht="13.5" customHeight="1">
       <c r="A147" t="s">
-        <v>2541</v>
+        <v>1654</v>
       </c>
       <c r="B147" t="s">
-        <v>2542</v>
+        <v>1646</v>
       </c>
       <c r="C147" t="s">
-        <v>2543</v>
+        <v>1647</v>
       </c>
       <c r="D147" t="s">
-        <v>2544</v>
+        <v>1655</v>
       </c>
       <c r="E147" t="s">
-        <v>2545</v>
+        <v>1649</v>
       </c>
       <c r="F147" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G147" t="s">
-        <v>27</v>
-      </c>
-      <c r="H147" s="1">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="G147" s="3">
+        <v>9</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I147" t="s">
-        <v>2546</v>
+        <v>1656</v>
       </c>
       <c r="J147" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="K147" t="s">
         <v>84</v>
@@ -23983,19 +24044,19 @@
         <v>32</v>
       </c>
       <c r="M147" t="s">
-        <v>2547</v>
+        <v>1657</v>
       </c>
       <c r="N147" t="s">
-        <v>2548</v>
+        <v>1658</v>
       </c>
       <c r="O147" t="s">
-        <v>2549</v>
+        <v>1651</v>
       </c>
       <c r="P147" t="s">
-        <v>2550</v>
+        <v>1652</v>
       </c>
       <c r="Q147" t="s">
-        <v>1992</v>
+        <v>27</v>
       </c>
       <c r="R147" t="s">
         <v>27</v>
@@ -51771,15 +51832,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U575">
+  <autoFilter ref="A1:U575" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters blank="1">
         <filter val="退款（交易退款）"/>
         <filter val="在线支付"/>
       </filters>
     </filterColumn>
-    <sortState ref="A3:U575">
-      <sortCondition ref="P1:P575"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:U575">
+      <sortCondition ref="F1:F575"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -51789,16 +51850,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:MW186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="MD1" workbookViewId="0">
+    <sheetView topLeftCell="MD1" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="16" max="16" width="41.625" customWidth="1"/>
+    <col min="16" max="16" width="41.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:361">
@@ -64255,16 +64316,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="16" max="16" width="97.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="97.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1">
@@ -66555,22 +66616,23 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.25" customWidth="1"/>
+    <col min="7" max="7" width="31.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
